--- a/debate/ACM/UCOD_ACM_by_year_age_analysis.xlsx
+++ b/debate/ACM/UCOD_ACM_by_year_age_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05338A8-9933-4919-B8CC-C11E36EBD4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196815D4-1168-4876-B1E7-0B169326A384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9AA18A5B-79EA-4532-B807-4FDA8DB02634}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="88" r:id="rId4"/>
+    <pivotCache cacheId="41" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="54">
   <si>
     <t>Five-Year Age Groups</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2021 vs baseline</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -779,7 +782,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UCOD_by_age_year_analysis.xlsx]younger years!PivotTable1</c:name>
+    <c:name>[UCOD_ACM_by_year_age_analysis.xlsx]younger years!PivotTable1</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -3532,7 +3535,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UCOD_by_age_year_analysis.xlsx]younger years!PivotTable1</c:name>
+    <c:name>[UCOD_ACM_by_year_age_analysis.xlsx]younger years!PivotTable1</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -5838,7 +5841,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UCOD_by_age_year_analysis.xlsx]UCOD vs. age for each year!PivotTable1</c:name>
+    <c:name>[UCOD_ACM_by_year_age_analysis.xlsx]UCOD vs. age for each year!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -8597,7 +8600,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[UCOD_by_age_year_analysis.xlsx]UCOD vs. age for each year!PivotTable1</c:name>
+    <c:name>[UCOD_ACM_by_year_age_analysis.xlsx]UCOD vs. age for each year!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -14354,16 +14357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15748,7 +15751,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EAC0BC4-F15B-4997-AD9B-91385A5C83E1}" name="PivotTable1" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EAC0BC4-F15B-4997-AD9B-91385A5C83E1}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -16326,7 +16329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E240FDF-61BF-4C96-9B5B-62D5BDAC93BD}" name="PivotTable1" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E240FDF-61BF-4C96-9B5B-62D5BDAC93BD}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -17011,22 +17014,22 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>19774</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>19513</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>23538</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>24900</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>22487</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>20934</v>
       </c>
     </row>
@@ -17034,22 +17037,22 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>27461</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>26969</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>32696</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>35195</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>31295</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>27775</v>
       </c>
     </row>
@@ -17057,22 +17060,22 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>31383</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>32209</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>40790</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>47079</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>43074</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>39674</v>
       </c>
     </row>
@@ -17080,22 +17083,22 @@
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>37617</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>38638</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>48081</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>56403</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>50472</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>46983</v>
       </c>
     </row>
@@ -17103,22 +17106,22 @@
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>42763</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>44348</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>56409</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>68536</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>61133</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>58353</v>
       </c>
     </row>
@@ -17126,22 +17129,22 @@
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>64873</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>63739</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>76431</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>86144</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>73143</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>67271</v>
       </c>
     </row>
@@ -17149,22 +17152,22 @@
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>99964</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>96654</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>114711</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>129893</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>110141</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>99502</v>
       </c>
       <c r="Y11" t="s">
@@ -17175,22 +17178,22 @@
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>160963</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>158453</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>183228</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>197608</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>168323</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>148600</v>
       </c>
     </row>
@@ -17198,22 +17201,22 @@
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>484798</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>480523</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>575884</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>645758</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>560068</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>509092</v>
       </c>
     </row>
@@ -17664,8 +17667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4BBDB-B47F-45A1-97BE-1C6EAF4754CC}">
   <dimension ref="A3:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17706,6 +17709,9 @@
       <c r="G4">
         <v>2023</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -17729,6 +17735,10 @@
       <c r="G5">
         <v>3503</v>
       </c>
+      <c r="H5">
+        <f>2*E5/(B5+C5)</f>
+        <v>1.1359007001909611</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -17752,6 +17762,10 @@
       <c r="G6">
         <v>12777</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H22" si="0">2*E6/(B6+C6)</f>
+        <v>1.2992538036631456</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -17775,6 +17789,10 @@
       <c r="G7">
         <v>20934</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.2675948787130602</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -17798,6 +17816,10 @@
       <c r="G8">
         <v>27775</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.2932206503766306</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -17821,6 +17843,10 @@
       <c r="G9">
         <v>39674</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.4806579443955215</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -17844,6 +17870,10 @@
       <c r="G10">
         <v>46983</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.4793259458396171</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -17867,6 +17897,10 @@
       <c r="G11">
         <v>58353</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.5735326193018104</v>
+      </c>
       <c r="Y11" t="s">
         <v>52</v>
       </c>
@@ -17893,6 +17927,10 @@
       <c r="G12">
         <v>67271</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.3395950611140484</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -17916,6 +17954,10 @@
       <c r="G13">
         <v>99502</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.3212727217243589</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -17939,6 +17981,10 @@
       <c r="G14">
         <v>148600</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2373080872592481</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -17962,6 +18008,10 @@
       <c r="G15">
         <v>227934</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.3038616776304324</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -17985,8 +18035,12 @@
       <c r="G16">
         <v>288996</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.3091219757227217</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -18008,8 +18062,12 @@
       <c r="G17">
         <v>338684</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.3248977983051446</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -18031,8 +18089,12 @@
       <c r="G18">
         <v>389791</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.2556607568968641</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -18054,8 +18116,12 @@
       <c r="G19">
         <v>408397</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.1819931066834832</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -18077,8 +18143,12 @@
       <c r="G20">
         <v>389919</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.0860801641816049</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -18100,8 +18170,12 @@
       <c r="G21">
         <v>312034</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.0569333952367808</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -18123,8 +18197,12 @@
       <c r="G22">
         <v>149364</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.0667531273373545</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -18147,7 +18225,7 @@
         <v>3030491</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -18170,7 +18248,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -18193,7 +18271,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -18216,7 +18294,7 @@
         <v>12777</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -18239,7 +18317,7 @@
         <v>20934</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -18262,7 +18340,7 @@
         <v>27775</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
